--- a/Module Pinouts.xlsx
+++ b/Module Pinouts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Arduino\canbus2cluster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43C939C-DAAE-4969-8DB7-F63F25862C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B7E02E-4DA4-45CB-88F6-8061F60514DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2277D2B6-EF2D-4C47-8FFA-EE2E6ABE4DEA}"/>
   </bookViews>
@@ -394,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -417,12 +417,8 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
@@ -463,6 +459,55 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1429615</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38822</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8F7709F-D003-5BC7-DA88-010B58EDAD2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9067800" y="200025"/>
+          <a:ext cx="6201640" cy="5172797"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -496,6 +541,50 @@
         <a:xfrm>
           <a:off x="10848975" y="228600"/>
           <a:ext cx="4677428" cy="2695951"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3658372</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>76846</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F953732-D056-BA19-62B4-F119D0D247D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676275" y="4048125"/>
+          <a:ext cx="5534797" cy="4629796"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -807,7 +896,7 @@
   <dimension ref="B2:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1030,6 +1119,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1038,7 +1128,7 @@
   <dimension ref="B1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1051,211 +1141,211 @@
   <sheetData>
     <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="41" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="28">
+      <c r="B3" s="24">
         <v>1</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="25" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="30">
+      <c r="B4" s="26">
         <v>2</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="27" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="32">
+      <c r="B5" s="28">
         <v>3</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="29" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="32">
+      <c r="B6" s="28">
         <v>4</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="29" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="34">
+      <c r="B7" s="30">
         <v>5</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="31" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="34">
+      <c r="B8" s="30">
         <v>6</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="31" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="34">
+      <c r="B9" s="30">
         <v>7</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="31" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="34">
+      <c r="B10" s="30">
         <v>8</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="31" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="36">
+      <c r="B11" s="32">
         <v>9</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="33" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="38">
+      <c r="B12" s="34">
         <v>10</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="35" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="38">
+      <c r="B13" s="34">
         <v>11</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="35" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="38">
+      <c r="B14" s="34">
         <v>12</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="35" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="36">
+      <c r="B15" s="32">
         <v>13</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="33" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="36">
+      <c r="B16" s="32">
         <v>14</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="33" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="36">
+      <c r="B17" s="32">
         <v>15</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="33" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="36">
+      <c r="B18" s="32">
         <v>16</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="33" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="36">
+      <c r="B19" s="32">
         <v>17</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="33" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="40">
+      <c r="B20" s="36">
         <v>18</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="42" t="s">
+      <c r="D20" s="38" t="s">
         <v>38</v>
       </c>
     </row>
